--- a/data/STA Data/Pruned Data/IBSC Teacher STA MR4.xlsx
+++ b/data/STA Data/Pruned Data/IBSC Teacher STA MR4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/STA Data/Pruned Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_CFDB4A766D0B9A9A029A9901B202CD24B2CE424E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03D5A550-5374-4399-83D2-4A314E32210F}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_CFDB4A766D0B9A9A029A9901B202CD24B2CE424E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09D0E00-E8C7-49E1-8010-C7FF0D29318B}"/>
   <bookViews>
-    <workbookView xWindow="43170" yWindow="4960" windowWidth="28100" windowHeight="15910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-10" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -945,13 +945,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="50.4140625" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" customWidth="1"/>
+    <col min="29" max="29" width="16.58203125" customWidth="1"/>
+    <col min="30" max="30" width="35.1640625" customWidth="1"/>
+    <col min="31" max="31" width="43.1640625" customWidth="1"/>
+    <col min="32" max="32" width="38.08203125" customWidth="1"/>
+    <col min="33" max="33" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.35">
@@ -4016,7 +4023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
